--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3243774.749483832</v>
+        <v>3233457.681427447</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12744834.49889432</v>
+        <v>12927318.58103365</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2120971.347036313</v>
+        <v>1404708.958983484</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7253302.119006003</v>
+        <v>7365436.144936876</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>110.6216917035649</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>245.0609868094996</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797656</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1590,10 +1590,10 @@
         <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179999</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>318.2977551524149</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
@@ -1624,7 +1624,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958322</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>154.2342841319864</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>322.0051257358373</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414535</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1770,22 +1770,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124548</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1830,7 +1830,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1846,16 +1846,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>270.0066624789504</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G17" t="n">
         <v>363.9465890348608</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958319</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>196.8486114728749</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988204</v>
@@ -1912,7 +1912,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="19">
@@ -2007,22 +2007,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.9570160514547</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2067,7 +2067,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
         <v>171.6095167335022</v>
@@ -2095,10 +2095,10 @@
         <v>359.9009091231188</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
-        <v>113.2210841215369</v>
+        <v>33.90409279404434</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
@@ -2143,13 +2143,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X20" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2295,7 +2295,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2304,7 +2304,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
         <v>171.6095167335022</v>
@@ -2320,22 +2320,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536692</v>
+        <v>162.4742767635223</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G23" t="n">
-        <v>300.9831255412388</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>204.0200353403094</v>
@@ -2380,13 +2380,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H24" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404359</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>218.3373217201514</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>234.0716522785278</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996212</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335018</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>232.5545998123422</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2854,13 +2854,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>199.7172233328928</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575764</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>294.0811679132213</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>276.6202180207483</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>139.5817171805835</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>293.2776963220026</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>318.2233719914522</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>322.2690519031942</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>205.9550906370612</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>20.53508803791661</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>115.2652963893609</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>162.3424982086428</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>239.0995847198757</v>
       </c>
       <c r="W32" t="n">
-        <v>259.9404756908556</v>
+        <v>260.5882949671538</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>281.0784269282098</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>297.5852649057944</v>
       </c>
     </row>
     <row r="33">
@@ -3119,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>134.9994691657081</v>
@@ -3161,7 +3161,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U33" t="n">
         <v>225.7871683969286</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>91.17930643167807</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>78.59414734836861</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>59.96279926795313</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797664</v>
+        <v>57.78128889630995</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433872</v>
+        <v>56.76837427267202</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>77.373134508769</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572825</v>
+        <v>56.10234116406156</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>7.699746659578871</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514548</v>
+        <v>0.2794789197881045</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>101.1163515811827</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>130.89627552591</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>197.5591644553536</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>163.4849695735688</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>197.8703245863318</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>137.0569816387779</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>129.9319796018356</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448881</v>
+        <v>294.0811679132213</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>276.6202180207483</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020905</v>
+        <v>139.5817171805826</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536693</v>
+        <v>293.2776963220026</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>318.2233719914522</v>
       </c>
       <c r="G35" t="n">
-        <v>323.7585805631172</v>
+        <v>322.2690519031942</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>205.9550906370612</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>20.53508803791661</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>115.2652963893609</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>162.3424982086428</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515424</v>
+        <v>239.0995847198757</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>260.5882949671538</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>281.0784269282098</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374611</v>
+        <v>297.5852649057944</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3398,7 +3398,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U36" t="n">
         <v>225.7871683969286</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>91.17930643167807</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>78.59414734836861</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>59.96279926795313</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797664</v>
+        <v>57.78128889630995</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433872</v>
+        <v>56.76837427267202</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>77.373134508769</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572825</v>
+        <v>56.10234116406156</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124557</v>
+        <v>7.699746659578871</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514548</v>
+        <v>0.2794789197881045</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>101.1163515811827</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>130.89627552591</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>197.5591644553536</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>163.4849695735688</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>197.8703245863318</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>137.0569816387779</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>129.9319796018356</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>294.0811679132213</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>276.6202180207483</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>266.0303678704237</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>293.2776963220025</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>318.2233719914522</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>322.2690519031942</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>205.9550906370612</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>20.53508803791658</v>
       </c>
       <c r="T38" t="n">
-        <v>58.58787979144372</v>
+        <v>115.2652963893609</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>162.3424982086427</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>239.0995847198757</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>134.1396442773151</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>281.0784269282098</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>297.5852649057944</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3641,7 +3641,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>91.17930643167804</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>78.59414734836858</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>59.9627992679531</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>57.78128889630992</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>56.76837427267199</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>77.37313450876897</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572838</v>
+        <v>56.10234116406153</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>7.699746659578842</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>0.279478919788076</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128492</v>
+        <v>101.1163515811826</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>130.8962755259099</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870207</v>
+        <v>197.5591644553536</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>163.4849695735687</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>197.8703245863317</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>137.0569816387779</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>129.9319796018355</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>341.056304531814</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>323.5953546393409</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>313.0055044890163</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>340.2528329405952</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>75.8368008929141</v>
+        <v>252.9302272556538</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>17.85235843820458</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>162.2404330079535</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>209.3176348272354</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>286.0747213384683</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>307.5634315857464</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>328.0535635468024</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>344.560401524387</v>
       </c>
     </row>
     <row r="42">
@@ -3875,7 +3875,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.42510138276427</v>
+        <v>138.1544430502707</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5692839669612</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>106.9379358865457</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>82.2009265582635</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>124.3482711273616</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>103.0774777826542</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>54.67488327817147</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>47.25461553838072</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>148.0914881997753</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>177.8714121445026</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>244.5343010739462</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>210.4601061921614</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>244.8454612049244</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>184.0321182573705</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>176.9071162204282</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>341.056304531814</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>323.5953546393409</v>
       </c>
       <c r="D44" t="n">
-        <v>186.8250998946407</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>122.0880013351287</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>365.1985086100448</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>369.2441885217868</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>67.51022465650919</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>162.2404330079535</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>209.3176348272354</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>286.0747213384683</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>307.5634315857464</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>328.0535635468024</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>344.560401524387</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.6898441249713</v>
+        <v>138.1544430502707</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>125.5692839669612</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>106.9379358865457</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>104.7564255149025</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>103.7435108912646</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>124.3482711273616</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>54.67488327817147</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>24.03308347313156</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>148.0914881997753</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>177.8714121445026</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>244.5343010739462</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>210.4601061921614</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>244.8454612049244</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>184.0321182573705</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>176.9071162204282</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1927.670472887449</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C11" t="n">
-        <v>1606.15758889511</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D11" t="n">
-        <v>1295.341523236433</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
         <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="V11" t="n">
-        <v>2898.155827638544</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="W11" t="n">
-        <v>2592.836805316504</v>
+        <v>2798.917649094592</v>
       </c>
       <c r="X11" t="n">
-        <v>2266.820680003497</v>
+        <v>2472.901523781586</v>
       </c>
       <c r="Y11" t="n">
-        <v>2266.820680003497</v>
+        <v>2130.211824753847</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,34 +5138,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5217,16 +5217,16 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5235,16 +5235,16 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781834</v>
+        <v>1707.656676566316</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391136</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,40 +5290,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3167.077706941465</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638545</v>
+        <v>2960.996863163375</v>
       </c>
       <c r="V14" t="n">
-        <v>2742.36362144462</v>
+        <v>2677.383608767878</v>
       </c>
       <c r="W14" t="n">
-        <v>2437.044599122579</v>
+        <v>2372.064586445837</v>
       </c>
       <c r="X14" t="n">
-        <v>2111.028473809572</v>
+        <v>2372.064586445837</v>
       </c>
       <c r="Y14" t="n">
-        <v>1768.338774781834</v>
+        <v>2046.806883682365</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5372,16 +5372,16 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
         <v>2435.471302619336</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268789</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770419</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998336</v>
@@ -5433,16 +5433,16 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5457,31 +5457,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1927.67047288745</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C17" t="n">
-        <v>1606.157588895111</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D17" t="n">
-        <v>1295.341523236434</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E17" t="n">
-        <v>957.0029035862633</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
         <v>684.268901082273</v>
@@ -5509,19 +5509,19 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2898.155827638545</v>
+        <v>2699.318846352812</v>
       </c>
       <c r="W17" t="n">
-        <v>2592.836805316505</v>
+        <v>2393.999824030771</v>
       </c>
       <c r="X17" t="n">
-        <v>2266.820680003498</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y17" t="n">
-        <v>2266.820680003498</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,7 +5636,7 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501177</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
         <v>215.1557144998336</v>
@@ -5670,37 +5670,37 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315237</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328068</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337098</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885665</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107744</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813345</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588245</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T19" t="n">
         <v>1938.403572105845</v>
@@ -5709,7 +5709,7 @@
         <v>1696.750338179562</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
         <v>1247.547945832861</v>
@@ -5718,7 +5718,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1650.849925018063</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C20" t="n">
-        <v>1329.337041025725</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D20" t="n">
-        <v>1018.520975367048</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E20" t="n">
-        <v>680.1823557168771</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F20" t="n">
-        <v>316.6460838753429</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5782,22 +5782,22 @@
         <v>3262.76478608434</v>
       </c>
       <c r="T20" t="n">
-        <v>3148.400054648444</v>
+        <v>3228.518227706517</v>
       </c>
       <c r="U20" t="n">
-        <v>2942.319210870354</v>
+        <v>3022.437383928427</v>
       </c>
       <c r="V20" t="n">
-        <v>2658.705956474857</v>
+        <v>2738.82412953293</v>
       </c>
       <c r="W20" t="n">
-        <v>2658.705956474857</v>
+        <v>2433.505107210889</v>
       </c>
       <c r="X20" t="n">
-        <v>2332.68983116185</v>
+        <v>2107.488981897883</v>
       </c>
       <c r="Y20" t="n">
-        <v>1990.000132134112</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>158.140134131524</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328071</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337099</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885665</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O22" t="n">
         <v>1896.109063016757</v>
@@ -5931,13 +5931,13 @@
         <v>2175.221948702823</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107744</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813345</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588245</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T22" t="n">
         <v>1938.403572105845</v>
@@ -5946,7 +5946,7 @@
         <v>1696.750338179562</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
         <v>1247.547945832861</v>
@@ -5955,7 +5955,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1644.057218491951</v>
+        <v>1522.736669656749</v>
       </c>
       <c r="C23" t="n">
-        <v>1322.544334499612</v>
+        <v>1522.736669656749</v>
       </c>
       <c r="D23" t="n">
-        <v>1322.544334499612</v>
+        <v>1211.920603998072</v>
       </c>
       <c r="E23" t="n">
-        <v>984.2057148494416</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F23" t="n">
-        <v>620.6694430079074</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G23" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3104.236671416634</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2898.155827638544</v>
+        <v>3119.524977831081</v>
       </c>
       <c r="V23" t="n">
-        <v>2614.542573243047</v>
+        <v>2835.911723435584</v>
       </c>
       <c r="W23" t="n">
-        <v>2309.223550921006</v>
+        <v>2530.592701113543</v>
       </c>
       <c r="X23" t="n">
-        <v>1983.207425607999</v>
+        <v>2204.576575800536</v>
       </c>
       <c r="Y23" t="n">
-        <v>1983.207425607999</v>
+        <v>1861.886876772798</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6132,28 +6132,28 @@
         <v>535.3126933611984</v>
       </c>
       <c r="E25" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F25" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G25" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H25" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K25" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L25" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M25" t="n">
         <v>1162.360316885667</v>
@@ -6165,7 +6165,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P25" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q25" t="n">
         <v>2299.337630107746</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1606.686541786253</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.143792573979</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D26" t="n">
-        <v>1386.143792573979</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E26" t="n">
-        <v>1047.805172923808</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F26" t="n">
-        <v>684.2689010822733</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G26" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218377</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T26" t="n">
-        <v>3104.236671416634</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="U26" t="n">
-        <v>2898.155827638544</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="V26" t="n">
-        <v>2614.542573243047</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="W26" t="n">
-        <v>2614.542573243047</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X26" t="n">
-        <v>2288.52644793004</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y26" t="n">
-        <v>1945.836748902301</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052955</v>
       </c>
       <c r="C28" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254619</v>
       </c>
       <c r="D28" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E28" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F28" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G28" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H28" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K28" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L28" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337116</v>
       </c>
       <c r="M28" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N28" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O28" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P28" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q28" t="n">
         <v>2299.337630107746</v>
@@ -6420,16 +6420,16 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V28" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882919</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874619</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1301.367519464212</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C29" t="n">
-        <v>979.854635471874</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D29" t="n">
-        <v>669.0385698131968</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E29" t="n">
-        <v>434.1349336391137</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F29" t="n">
-        <v>434.1349336391137</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218377</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T29" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U29" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V29" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W29" t="n">
-        <v>2309.223550921006</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X29" t="n">
-        <v>1983.207425607999</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="Y29" t="n">
-        <v>1640.517726580261</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="30">
@@ -6536,13 +6536,13 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C31" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D31" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E31" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F31" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G31" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H31" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K31" t="n">
         <v>408.6327023328085</v>
       </c>
       <c r="L31" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M31" t="n">
         <v>1162.360316885667</v>
@@ -6642,31 +6642,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q31" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R31" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T31" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V31" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1344.120404724783</v>
+        <v>1638.155698305963</v>
       </c>
       <c r="C32" t="n">
-        <v>1022.607520732444</v>
+        <v>1358.741336668844</v>
       </c>
       <c r="D32" t="n">
-        <v>1022.607520732444</v>
+        <v>1217.749703153103</v>
       </c>
       <c r="E32" t="n">
-        <v>684.2689010822733</v>
+        <v>921.5096058581508</v>
       </c>
       <c r="F32" t="n">
-        <v>684.2689010822733</v>
+        <v>600.0718563718355</v>
       </c>
       <c r="G32" t="n">
-        <v>316.646083875343</v>
+        <v>274.5475615201241</v>
       </c>
       <c r="H32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3262.764786084339</v>
+        <v>3304.863308439558</v>
       </c>
       <c r="T32" t="n">
-        <v>3104.236671416634</v>
+        <v>3188.433716127072</v>
       </c>
       <c r="U32" t="n">
-        <v>2898.155827638544</v>
+        <v>3024.451394704201</v>
       </c>
       <c r="V32" t="n">
-        <v>2614.542573243047</v>
+        <v>2782.936662663923</v>
       </c>
       <c r="W32" t="n">
-        <v>2351.976436181576</v>
+        <v>2519.716162697101</v>
       </c>
       <c r="X32" t="n">
-        <v>2025.96031086857</v>
+        <v>2235.798559739313</v>
       </c>
       <c r="Y32" t="n">
-        <v>1683.270611840831</v>
+        <v>1935.207383066793</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
         <v>312.3844025601599</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>759.4662498052946</v>
+        <v>464.7765933187624</v>
       </c>
       <c r="C34" t="n">
-        <v>637.979699825461</v>
+        <v>385.3885656941476</v>
       </c>
       <c r="D34" t="n">
-        <v>535.3126933611985</v>
+        <v>324.820081585104</v>
       </c>
       <c r="E34" t="n">
-        <v>434.8492327268787</v>
+        <v>266.4551433060031</v>
       </c>
       <c r="F34" t="n">
-        <v>335.4089181770415</v>
+        <v>209.1133511113849</v>
       </c>
       <c r="G34" t="n">
-        <v>215.1557144998337</v>
+        <v>130.958669789396</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3881606657648</v>
+        <v>74.28963831054591</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>158.1401341315262</v>
+        <v>166.1010169823795</v>
       </c>
       <c r="K34" t="n">
-        <v>408.6327023328092</v>
+        <v>352.1780182628065</v>
       </c>
       <c r="L34" t="n">
-        <v>771.6978860337119</v>
+        <v>595.6540091979205</v>
       </c>
       <c r="M34" t="n">
-        <v>1162.360316885668</v>
+        <v>850.852637509875</v>
       </c>
       <c r="N34" t="n">
-        <v>1550.274078843939</v>
+        <v>1112.672712056484</v>
       </c>
       <c r="O34" t="n">
-        <v>1896.109063016759</v>
+        <v>1338.357208287431</v>
       </c>
       <c r="P34" t="n">
-        <v>2175.221948702825</v>
+        <v>1525.074358052946</v>
       </c>
       <c r="Q34" t="n">
-        <v>2299.337630107746</v>
+        <v>1625.761272424244</v>
       </c>
       <c r="R34" t="n">
-        <v>2256.956805813347</v>
+        <v>1625.478970485064</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.720554588247</v>
+        <v>1523.341241615182</v>
       </c>
       <c r="T34" t="n">
-        <v>1938.403572105846</v>
+        <v>1391.122781488</v>
       </c>
       <c r="U34" t="n">
-        <v>1696.750338179563</v>
+        <v>1191.568069916936</v>
       </c>
       <c r="V34" t="n">
-        <v>1489.515482921749</v>
+        <v>1026.431737014341</v>
       </c>
       <c r="W34" t="n">
-        <v>1247.547945832862</v>
+        <v>826.5627222806729</v>
       </c>
       <c r="X34" t="n">
-        <v>1067.008027882918</v>
+        <v>688.1213266859478</v>
       </c>
       <c r="Y34" t="n">
-        <v>893.6650816874611</v>
+        <v>556.8769028457099</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1364.208554989044</v>
+        <v>1638.155698305962</v>
       </c>
       <c r="C35" t="n">
-        <v>1042.695670996706</v>
+        <v>1358.741336668843</v>
       </c>
       <c r="D35" t="n">
-        <v>731.8796053380283</v>
+        <v>1217.749703153103</v>
       </c>
       <c r="E35" t="n">
-        <v>393.5409856878574</v>
+        <v>921.5096058581508</v>
       </c>
       <c r="F35" t="n">
-        <v>393.5409856878574</v>
+        <v>600.0718563718355</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>274.5475615201241</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3304.863308439557</v>
       </c>
       <c r="T35" t="n">
-        <v>3167.077706941466</v>
+        <v>3188.433716127071</v>
       </c>
       <c r="U35" t="n">
-        <v>2960.996863163376</v>
+        <v>3024.4513947042</v>
       </c>
       <c r="V35" t="n">
-        <v>2677.383608767878</v>
+        <v>2782.936662663922</v>
       </c>
       <c r="W35" t="n">
-        <v>2372.064586445837</v>
+        <v>2519.7161626971</v>
       </c>
       <c r="X35" t="n">
-        <v>2046.048461132831</v>
+        <v>2235.798559739312</v>
       </c>
       <c r="Y35" t="n">
-        <v>1703.358762105092</v>
+        <v>1935.207383066792</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052946</v>
+        <v>464.7765933187624</v>
       </c>
       <c r="C37" t="n">
-        <v>637.979699825461</v>
+        <v>385.3885656941476</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611985</v>
+        <v>324.820081585104</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268787</v>
+        <v>266.4551433060031</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770415</v>
+        <v>209.1133511113849</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998337</v>
+        <v>130.958669789396</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657648</v>
+        <v>74.2896383105459</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315262</v>
+        <v>166.1010169823795</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328092</v>
+        <v>352.1780182628065</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337119</v>
+        <v>595.6540091979205</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885668</v>
+        <v>853.59772801388</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843939</v>
+        <v>1112.672712056484</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016759</v>
+        <v>1338.357208287431</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702825</v>
+        <v>1525.074358052946</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107746</v>
+        <v>1625.761272424244</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813347</v>
+        <v>1625.478970485064</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588247</v>
+        <v>1523.341241615182</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105846</v>
+        <v>1391.122781488</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179563</v>
+        <v>1191.568069916936</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.515482921749</v>
+        <v>1026.431737014341</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832862</v>
+        <v>826.5627222806729</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882918</v>
+        <v>688.1213266859478</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874611</v>
+        <v>556.8769028457099</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1400.715957574904</v>
+        <v>1765.881608093681</v>
       </c>
       <c r="C38" t="n">
-        <v>1079.203073582566</v>
+        <v>1486.467246456561</v>
       </c>
       <c r="D38" t="n">
-        <v>768.3870079238886</v>
+        <v>1217.749703153103</v>
       </c>
       <c r="E38" t="n">
-        <v>430.0483882737177</v>
+        <v>921.5096058581507</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218343</v>
+        <v>600.0718563718353</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>274.5475615201241</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7174,22 +7174,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.76478608434</v>
+        <v>3304.863308439559</v>
       </c>
       <c r="T38" t="n">
-        <v>3203.585109527326</v>
+        <v>3188.433716127073</v>
       </c>
       <c r="U38" t="n">
-        <v>2997.504265749236</v>
+        <v>3024.451394704201</v>
       </c>
       <c r="V38" t="n">
-        <v>2713.891011353739</v>
+        <v>2782.936662663923</v>
       </c>
       <c r="W38" t="n">
-        <v>2408.571989031698</v>
+        <v>2647.442072484817</v>
       </c>
       <c r="X38" t="n">
-        <v>2082.555863718691</v>
+        <v>2363.524469527029</v>
       </c>
       <c r="Y38" t="n">
-        <v>1739.866164690953</v>
+        <v>2062.93329285451</v>
       </c>
     </row>
     <row r="39">
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1785.73444130672</v>
+        <v>464.7765933187621</v>
       </c>
       <c r="C40" t="n">
-        <v>1664.247891326886</v>
+        <v>385.3885656941474</v>
       </c>
       <c r="D40" t="n">
-        <v>1561.580884862624</v>
+        <v>324.8200815851039</v>
       </c>
       <c r="E40" t="n">
-        <v>1461.117424228304</v>
+        <v>266.4551433060029</v>
       </c>
       <c r="F40" t="n">
-        <v>1361.677109678467</v>
+        <v>209.1133511113848</v>
       </c>
       <c r="G40" t="n">
-        <v>1241.42390600126</v>
+        <v>130.9586697893959</v>
       </c>
       <c r="H40" t="n">
-        <v>1142.656352167191</v>
+        <v>74.2896383105459</v>
       </c>
       <c r="I40" t="n">
-        <v>1092.780307933609</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1184.408325632951</v>
+        <v>166.1010169823795</v>
       </c>
       <c r="K40" t="n">
-        <v>1434.900893834234</v>
+        <v>352.1780182628066</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.966077535137</v>
+        <v>595.6540091979205</v>
       </c>
       <c r="M40" t="n">
-        <v>2188.628508387093</v>
+        <v>853.5977280138795</v>
       </c>
       <c r="N40" t="n">
-        <v>2576.542270345364</v>
+        <v>1112.672712056484</v>
       </c>
       <c r="O40" t="n">
-        <v>2922.377254518184</v>
+        <v>1338.35720828743</v>
       </c>
       <c r="P40" t="n">
-        <v>3201.49014020425</v>
+        <v>1525.074358052946</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1625.761272424243</v>
       </c>
       <c r="R40" t="n">
-        <v>3283.224997314773</v>
+        <v>1625.478970485063</v>
       </c>
       <c r="S40" t="n">
-        <v>3138.988746089673</v>
+        <v>1523.341241615182</v>
       </c>
       <c r="T40" t="n">
-        <v>2964.671763607272</v>
+        <v>1391.122781488</v>
       </c>
       <c r="U40" t="n">
-        <v>2723.018529680988</v>
+        <v>1191.568069916936</v>
       </c>
       <c r="V40" t="n">
-        <v>2515.783674423174</v>
+        <v>1026.431737014341</v>
       </c>
       <c r="W40" t="n">
-        <v>2273.816137334287</v>
+        <v>826.5627222806727</v>
       </c>
       <c r="X40" t="n">
-        <v>2093.276219384343</v>
+        <v>688.1213266859476</v>
       </c>
       <c r="Y40" t="n">
-        <v>1919.933273188886</v>
+        <v>556.8769028457097</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2124.186667467494</v>
+        <v>1308.718095547947</v>
       </c>
       <c r="C41" t="n">
-        <v>1755.224150527082</v>
+        <v>981.8541009627545</v>
       </c>
       <c r="D41" t="n">
-        <v>1396.958451920332</v>
+        <v>665.6869247112229</v>
       </c>
       <c r="E41" t="n">
-        <v>1011.170199322087</v>
+        <v>321.9971944681974</v>
       </c>
       <c r="F41" t="n">
-        <v>600.18429453248</v>
+        <v>321.9971944681974</v>
       </c>
       <c r="G41" t="n">
-        <v>185.1118443774764</v>
+        <v>321.9971944681974</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3307.573136318055</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3143.693911057496</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>2932.261956686551</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.252265792696</v>
+        <v>2643.2975916982</v>
       </c>
       <c r="W41" t="n">
-        <v>2884.252265792696</v>
+        <v>2332.627458783304</v>
       </c>
       <c r="X41" t="n">
-        <v>2510.786507531616</v>
+        <v>2001.260222877443</v>
       </c>
       <c r="Y41" t="n">
-        <v>2510.786507531616</v>
+        <v>1653.21941325685</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811088</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999819</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7481,13 +7481,13 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7523,13 +7523,13 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>773.7942044041906</v>
+        <v>669.3492665331507</v>
       </c>
       <c r="C43" t="n">
-        <v>604.8580214762837</v>
+        <v>542.5116059604627</v>
       </c>
       <c r="D43" t="n">
-        <v>604.8580214762837</v>
+        <v>434.4934889033458</v>
       </c>
       <c r="E43" t="n">
-        <v>456.9449278938906</v>
+        <v>351.4622499556049</v>
       </c>
       <c r="F43" t="n">
-        <v>310.0549803959803</v>
+        <v>351.4622499556049</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8579356855427</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>121.7392712586193</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>152.8955106394689</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>398.1434553486953</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>755.9640155575414</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1141.38182291744</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1524.050961383655</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1864.641322064418</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>2138.509584258428</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>2257.380642171292</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>2209.648707284039</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>2060.061345466084</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415547</v>
+        <v>1880.393252390829</v>
       </c>
       <c r="U43" t="n">
-        <v>1326.59460854119</v>
+        <v>1633.388907871691</v>
       </c>
       <c r="V43" t="n">
-        <v>1071.910120335303</v>
+        <v>1420.802942021023</v>
       </c>
       <c r="W43" t="n">
-        <v>1071.910120335303</v>
+        <v>1173.484294339281</v>
       </c>
       <c r="X43" t="n">
-        <v>843.9205694372858</v>
+        <v>987.5932657964829</v>
       </c>
       <c r="Y43" t="n">
-        <v>843.9205694372858</v>
+        <v>808.8992090081716</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796265</v>
+        <v>1258.558634721377</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8079389392149</v>
+        <v>931.6946401361838</v>
       </c>
       <c r="D44" t="n">
-        <v>364.0957168234162</v>
+        <v>931.6946401361838</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>808.3734266663569</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>439.4860442319681</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
@@ -7669,31 +7669,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3257.413675491485</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3093.534450230926</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>2882.102495859981</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2593.138130871629</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2282.467997956734</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>1951.100762050873</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943748</v>
+        <v>1603.05995243028</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>692.8053595283523</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>565.9676989556642</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>457.9495818985473</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>352.135010671373</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>247.3435855286815</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>121.7392712586193</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>121.7392712586193</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>152.8955106394689</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>398.1434553486953</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>755.9640155575414</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1141.38182291744</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1524.050961383655</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1864.641322064418</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>2138.509584258428</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>2257.380642171292</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>2233.10480027924</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>2083.517438461286</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1903.849345386031</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1656.845000866893</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>1444.259035016225</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>1196.940387334483</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>1011.049358791684</v>
       </c>
       <c r="Y46" t="n">
-        <v>231.8553933260938</v>
+        <v>832.3553020033731</v>
       </c>
     </row>
   </sheetData>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272133</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
         <v>106.7437663446525</v>
@@ -9342,7 +9342,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775007</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272165</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>106.7437663446525</v>
@@ -9573,7 +9573,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658812</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272398</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>2.772818690914221</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272398</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>2.772818690914221</v>
       </c>
       <c r="N37" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>2.772818690913766</v>
       </c>
       <c r="N40" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.96299667475891</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652213</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>225.1370133413231</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>89.89424664416953</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>126.5428377195558</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>17.25767630162369</v>
       </c>
     </row>
     <row r="15">
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>89.89424664416845</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>83.9285103786674</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>43.72174939949058</v>
+        <v>123.0387407269832</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="21">
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>172.4809566901469</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>62.96346349362199</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>99.96043343226356</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>68.19417982029256</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>102.400633641327</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>139.5455787045681</v>
       </c>
     </row>
     <row r="30">
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>126.4486506898403</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>42.32535640796493</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>126.4486506898412</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>40.18800847174373</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>98.35495372958385</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>126.4486506898387</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>365.1985086100448</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>369.2441885217868</v>
       </c>
       <c r="H41" t="n">
-        <v>218.7709634944064</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>49.65786621830461</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110.406878799173</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>22.55549895663904</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>103.7435108912646</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>167.8579417260423</v>
+        <v>313.0055044890163</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>218.1648316054665</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>252.9302272556538</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>103.0774777826542</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>23.22153206524916</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>655442.705670346</v>
+        <v>655421.070973631</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>655487.8348501156</v>
+        <v>655481.1746633913</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>626873.4070371822</v>
+        <v>626873.407037182</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>626873.4070371822</v>
+        <v>626873.4070371821</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>626873.407037182</v>
+        <v>626873.4070371822</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>626873.4070371821</v>
+        <v>626873.4070371822</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>626873.4070371821</v>
+        <v>648822.7580958616</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>626873.4070371822</v>
+        <v>648822.7580958615</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>626873.4070371822</v>
+        <v>648822.7580958616</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>560843.957478781</v>
+        <v>619725.5501535181</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>560843.957478781</v>
+        <v>619725.5501535181</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="C2" t="n">
-        <v>778338.212983536</v>
+        <v>778312.5217811862</v>
       </c>
       <c r="D2" t="n">
-        <v>778391.8038845118</v>
+        <v>778383.8949127765</v>
       </c>
       <c r="E2" t="n">
-        <v>726304.4593953517</v>
+        <v>726304.459395351</v>
       </c>
       <c r="F2" t="n">
         <v>726304.4593953507</v>
@@ -26331,31 +26331,31 @@
         <v>726304.4593953508</v>
       </c>
       <c r="H2" t="n">
-        <v>726304.4593953508</v>
+        <v>726304.4593953507</v>
       </c>
       <c r="I2" t="n">
         <v>726304.4593953508</v>
       </c>
       <c r="J2" t="n">
-        <v>726304.4593953516</v>
+        <v>726304.4593953517</v>
       </c>
       <c r="K2" t="n">
-        <v>726304.4593953519</v>
+        <v>726304.4593953509</v>
       </c>
       <c r="L2" t="n">
-        <v>726304.4593953504</v>
+        <v>770427.6344059034</v>
       </c>
       <c r="M2" t="n">
-        <v>726304.4593953505</v>
+        <v>770427.6344059033</v>
       </c>
       <c r="N2" t="n">
-        <v>726304.4593953509</v>
+        <v>770427.6344059032</v>
       </c>
       <c r="O2" t="n">
-        <v>647894.4880447491</v>
+        <v>717816.3793459991</v>
       </c>
       <c r="P2" t="n">
-        <v>647894.4880447489</v>
+        <v>717816.3793459991</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>76955.4613211375</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>150973.6771990673</v>
+        <v>201068.9115716352</v>
       </c>
       <c r="E3" t="n">
-        <v>951823.5594950288</v>
+        <v>972725.176662199</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>33342.02970533331</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.5682920728</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>438159.9799240493</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>377068.1104903042</v>
+        <v>385783.8405692248</v>
       </c>
       <c r="E4" t="n">
+        <v>63095.10913369704</v>
+      </c>
+      <c r="F4" t="n">
+        <v>63095.10913369706</v>
+      </c>
+      <c r="G4" t="n">
+        <v>63095.10913369701</v>
+      </c>
+      <c r="H4" t="n">
+        <v>63095.10913369701</v>
+      </c>
+      <c r="I4" t="n">
+        <v>63095.10913369698</v>
+      </c>
+      <c r="J4" t="n">
         <v>63095.10913369705</v>
       </c>
-      <c r="F4" t="n">
-        <v>63095.10913369705</v>
-      </c>
-      <c r="G4" t="n">
-        <v>63095.109133697</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>63095.10913369703</v>
       </c>
-      <c r="I4" t="n">
-        <v>63095.10913369703</v>
-      </c>
-      <c r="J4" t="n">
-        <v>63095.10913369697</v>
-      </c>
-      <c r="K4" t="n">
-        <v>63095.10913369697</v>
-      </c>
       <c r="L4" t="n">
-        <v>63095.10913369698</v>
+        <v>88075.12438495172</v>
       </c>
       <c r="M4" t="n">
-        <v>63095.10913369698</v>
+        <v>88075.12438495172</v>
       </c>
       <c r="N4" t="n">
-        <v>63095.10913369698</v>
+        <v>88075.12438495172</v>
       </c>
       <c r="O4" t="n">
-        <v>15869.84275221455</v>
+        <v>57982.32877720176</v>
       </c>
       <c r="P4" t="n">
-        <v>15869.84275221455</v>
+        <v>57982.32877720176</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35469.92964214969</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
+        <v>78255.49332178175</v>
+      </c>
+      <c r="F5" t="n">
+        <v>78255.49332178175</v>
+      </c>
+      <c r="G5" t="n">
         <v>78255.49332178176</v>
       </c>
-      <c r="F5" t="n">
-        <v>78255.49332178177</v>
-      </c>
-      <c r="G5" t="n">
-        <v>78255.49332178177</v>
-      </c>
       <c r="H5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="J5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="K5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="L5" t="n">
-        <v>78255.49332178175</v>
+        <v>81759.28219090385</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178175</v>
+        <v>81759.28219090383</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>81759.28219090385</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>77810.12943051539</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>77810.12943051539</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.9618494551</v>
+        <v>277024.8260707741</v>
       </c>
       <c r="C6" t="n">
-        <v>227752.8420961995</v>
+        <v>277024.8260707739</v>
       </c>
       <c r="D6" t="n">
-        <v>211037.0548382596</v>
+        <v>152743.0804023938</v>
       </c>
       <c r="E6" t="n">
-        <v>-366869.7025551559</v>
+        <v>-389184.0887216878</v>
       </c>
       <c r="F6" t="n">
-        <v>584953.8569398719</v>
+        <v>583541.0879405108</v>
       </c>
       <c r="G6" t="n">
-        <v>584953.8569398718</v>
+        <v>583541.0879405107</v>
       </c>
       <c r="H6" t="n">
-        <v>584953.8569398721</v>
+        <v>583541.0879405109</v>
       </c>
       <c r="I6" t="n">
-        <v>584953.856939872</v>
+        <v>583541.0879405111</v>
       </c>
       <c r="J6" t="n">
-        <v>547373.7476449988</v>
+        <v>545960.9786456379</v>
       </c>
       <c r="K6" t="n">
-        <v>584953.8569398732</v>
+        <v>583541.0879405112</v>
       </c>
       <c r="L6" t="n">
-        <v>584953.8569398717</v>
+        <v>566999.5653098419</v>
       </c>
       <c r="M6" t="n">
-        <v>377765.2886477988</v>
+        <v>393153.0267231021</v>
       </c>
       <c r="N6" t="n">
-        <v>584953.8569398721</v>
+        <v>600341.5950151749</v>
       </c>
       <c r="O6" t="n">
-        <v>557718.3047311413</v>
+        <v>580387.7816113066</v>
       </c>
       <c r="P6" t="n">
-        <v>557718.3047311411</v>
+        <v>580387.7816113066</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859261</v>
       </c>
-      <c r="F2" t="n">
-        <v>46.97513661859261</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.97513661859261</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859261</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="J2" t="n">
-        <v>46.97513661859253</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859253</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
     </row>
     <row r="3">
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.51053404356404</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>41.67753713166664</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>84.51053404356404</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>176.2858584739008</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>828.9803080758335</v>
+        <v>854.9966624673038</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27633,46 +27633,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.995431234265</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>197.3780308218049</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>152.2108253758121</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>176.8735421209845</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>182.15276230233</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>170.6907143895764</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>168.7922560961759</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>172.8557019027619</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>182.3778382331306</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6175011982809</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R5" t="n">
-        <v>194.2442922498546</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S5" t="n">
-        <v>201.2782251861741</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>221.6086340353848</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3184736406064</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,49 +27709,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1617397880981</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4798574821198</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>93.26381686564172</v>
+        <v>99.52238</v>
       </c>
       <c r="J6" t="n">
-        <v>109.6636510644741</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K6" t="n">
-        <v>108.4883792396241</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>99.0855685739625</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>96.07579286827593</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>84.06444643947194</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>99.3467827438669</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>99.26290145971996</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.7780516067396</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>134.3933613232027</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S6" t="n">
-        <v>168.3067360880407</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>199.4320383100477</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9294230431385</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,49 +27788,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8385833134622</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>160.8722331255608</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>150.8675102286335</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>116.2210210581371</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K7" t="n">
-        <v>111.3076085791133</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L7" t="n">
-        <v>112.2275406460179</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>115.037011185094</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>104.3647933249821</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>116.9160502008701</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>119.2963951161054</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.7439109888677</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R7" t="n">
-        <v>170.4411110266864</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>221.3607505982589</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.2944426905688</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3107168449456</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27870,46 +27870,46 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R8" t="n">
-        <v>149.7272407629755</v>
+        <v>156.2970892917925</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,49 +27946,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I9" t="n">
-        <v>80.20868489375378</v>
+        <v>82.13536774255608</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R9" t="n">
-        <v>110.8508838462542</v>
+        <v>114.3252943440434</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,49 +28025,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J10" t="n">
-        <v>93.74601906876785</v>
+        <v>97.06289100487388</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q10" t="n">
-        <v>112.1247463593087</v>
+        <v>116.0532158724207</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="12">
@@ -28189,7 +28189,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28456,7 +28456,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="18">
@@ -28690,7 +28690,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859252</v>
+        <v>88.65267375025923</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>88.65267375025925</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>41.67753713166663</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3397408403761366</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.479370881502109</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>13.09785874860102</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.83507915087415</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>43.21630892399602</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>53.61365266765722</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>59.65551883769633</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>60.62080750041504</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>57.24250951892483</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>48.85515752213895</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.68818867616854</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>21.34124556427751</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7.74184440007122</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.487215528746539</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02717926723009092</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1817773751125717</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.75558675437668</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.258563134358281</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>17.17397560219258</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>29.35305973473488</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>39.46881120591168</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>46.05824105374239</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>47.27726564386136</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>43.24946170057753</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>34.7115059546103</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>23.20372247928196</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.28614264076125</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3.376435015797108</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7326903847739181</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01195903783635341</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1523960449965909</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.354939381878782</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4.582964698624752</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10.77440038125897</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17.7056495914221</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>22.65713563522043</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>23.88877276251105</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>23.32075114025105</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>21.54048825097269</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.43160893304222</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.76109064057817</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6.852280350483075</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.655847438713315</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6511467377127063</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008312511545268603</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -34389,7 +34389,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781694</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563569</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165686</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564848</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165715</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629122</v>
@@ -36293,7 +36293,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412311</v>
       </c>
       <c r="P22" t="n">
         <v>281.932207763703</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36764,16 +36764,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37001,7 +37001,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37010,7 +37010,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165938</v>
+        <v>100.5948490406021</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>187.9565669499263</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>245.9353443789029</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>257.7763922342974</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>264.4647217642517</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>227.9641376070165</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>188.6031815813286</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>101.7039539104014</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165938</v>
+        <v>100.5948490406021</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>187.9565669499263</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>245.9353443789029</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>260.5492109252116</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>261.6919030733375</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>227.9641376070165</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>188.6031815813286</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>101.7039539104014</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>100.5948490406021</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>187.9565669499263</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>245.935344378903</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>260.5492109252112</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>261.6919030733376</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>227.9641376070166</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>188.6031815813286</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>101.7039539104015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>87.25595374473285</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>247.7251966759862</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>361.4349093018648</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>389.3109165251504</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>386.5344832992067</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>344.0306673543064</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>276.634608276777</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>120.0717756695603</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>87.25595374473285</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>247.7251966759862</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>361.4349093018648</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>389.3109165251504</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>386.5344832992067</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>344.0306673543064</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>276.634608276777</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>120.0717756695603</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
